--- a/jogos_2025-05-06.xlsx
+++ b/jogos_2025-05-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -271,7 +271,7 @@
     <t>Austria 2. Liga</t>
   </si>
   <si>
-    <t>Algeria Ligue 1</t>
+    <t>Switzerland Super League</t>
   </si>
   <si>
     <t>Sweden Superettan</t>
@@ -301,9 +301,21 @@
     <t>Kataller Toyama</t>
   </si>
   <si>
+    <t>Urawa Reds</t>
+  </si>
+  <si>
     <t>Consadole Sapporo</t>
   </si>
   <si>
+    <t>Renofa Yamaguchi</t>
+  </si>
+  <si>
+    <t>Avispa Fukuoka</t>
+  </si>
+  <si>
+    <t>Nagoya Grampus</t>
+  </si>
+  <si>
     <t>Montedio Yamagata</t>
   </si>
   <si>
@@ -313,24 +325,12 @@
     <t>Jeonbuk Motors</t>
   </si>
   <si>
-    <t>Avispa Fukuoka</t>
-  </si>
-  <si>
-    <t>Nagoya Grampus</t>
-  </si>
-  <si>
-    <t>Urawa Reds</t>
-  </si>
-  <si>
-    <t>Renofa Yamaguchi</t>
+    <t>Blaublitz Akita</t>
   </si>
   <si>
     <t>Ehime</t>
   </si>
   <si>
-    <t>Blaublitz Akita</t>
-  </si>
-  <si>
     <t>Roasso Kumamoto</t>
   </si>
   <si>
@@ -340,21 +340,21 @@
     <t>Kashiwa Reysol</t>
   </si>
   <si>
+    <t>JEF United</t>
+  </si>
+  <si>
     <t>Tokyo Verdy</t>
   </si>
   <si>
-    <t>JEF United</t>
-  </si>
-  <si>
     <t>Jeju United</t>
   </si>
   <si>
+    <t>Suwon</t>
+  </si>
+  <si>
     <t>Anyang</t>
   </si>
   <si>
-    <t>Suwon</t>
-  </si>
-  <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>Septemvri Sofia</t>
   </si>
   <si>
-    <t>CS Constantine</t>
+    <t>Yverdon Sport</t>
   </si>
   <si>
     <t>Västerås SK</t>
@@ -391,15 +391,15 @@
     <t>Inter Milan</t>
   </si>
   <si>
+    <t>Alianza Lima</t>
+  </si>
+  <si>
+    <t>Carabobo</t>
+  </si>
+  <si>
     <t>Atlético Bucaramanga</t>
   </si>
   <si>
-    <t>Carabobo</t>
-  </si>
-  <si>
-    <t>Alianza Lima</t>
-  </si>
-  <si>
     <t>CRB</t>
   </si>
   <si>
@@ -418,9 +418,21 @@
     <t>V-Varen Nagasaki</t>
   </si>
   <si>
+    <t>Gamba Osaka</t>
+  </si>
+  <si>
     <t>Jubilo Iwata</t>
   </si>
   <si>
+    <t>Mito Hollyhock</t>
+  </si>
+  <si>
+    <t>Kashima Antlers</t>
+  </si>
+  <si>
+    <t>Fagiano Okayama</t>
+  </si>
+  <si>
     <t>Oita Trinita</t>
   </si>
   <si>
@@ -430,24 +442,12 @@
     <t>Daejeon Citizen</t>
   </si>
   <si>
-    <t>Kashima Antlers</t>
-  </si>
-  <si>
-    <t>Fagiano Okayama</t>
-  </si>
-  <si>
-    <t>Gamba Osaka</t>
-  </si>
-  <si>
-    <t>Mito Hollyhock</t>
+    <t>Ventforet Kofu</t>
   </si>
   <si>
     <t>Iwaki</t>
   </si>
   <si>
-    <t>Ventforet Kofu</t>
-  </si>
-  <si>
     <t>Imabari</t>
   </si>
   <si>
@@ -457,21 +457,21 @@
     <t>Shimizu S-Pulse</t>
   </si>
   <si>
+    <t>Omiya Ardija</t>
+  </si>
+  <si>
     <t>Yokohama</t>
   </si>
   <si>
-    <t>Omiya Ardija</t>
-  </si>
-  <si>
     <t>Gangwon</t>
   </si>
   <si>
+    <t>Daegu</t>
+  </si>
+  <si>
     <t>FC Seoul</t>
   </si>
   <si>
-    <t>Daegu</t>
-  </si>
-  <si>
     <t>Shanghai Shenhua</t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>MC Oran</t>
+    <t>St. Gallen</t>
   </si>
   <si>
     <t>Kalmar</t>
@@ -508,15 +508,15 @@
     <t>FC Barcelona</t>
   </si>
   <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
     <t>Racing Club</t>
   </si>
   <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
     <t>Cuiabá</t>
   </si>
   <si>
@@ -532,21 +532,21 @@
     <t>complete</t>
   </si>
   <si>
-    <t>incomplete</t>
-  </si>
-  <si>
-    <t>suspended</t>
-  </si>
-  <si>
     <t>['23', '49']</t>
   </si>
   <si>
     <t>['35']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['77', '81']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['25', '69', '90+4']</t>
   </si>
   <si>
@@ -556,54 +556,72 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
     <t>['52']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['36', '90+1']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['11', '77']</t>
   </si>
   <si>
     <t>['85']</t>
   </si>
   <si>
+    <t>['18', '43']</t>
+  </si>
+  <si>
+    <t>['37', '45+3', '76']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['36', '61']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['21', '45', '90+3', '99']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['25', '30', '39', '85']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
     <t>['46', '55']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['1', '20', '25', '70']</t>
   </si>
   <si>
+    <t>['38', '45']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['45+2', '83', '90+6']</t>
   </si>
   <si>
-    <t>['43']</t>
-  </si>
-  <si>
-    <t>['53']</t>
-  </si>
-  <si>
-    <t>['38', '45']</t>
-  </si>
-  <si>
-    <t>['76']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -619,16 +637,49 @@
     <t>['7', '46', '78']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['60', '65', '90+5']</t>
   </si>
   <si>
     <t>['10', '26', '75', '87']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['31', '45+2']</t>
+  </si>
+  <si>
+    <t>['51', '72']</t>
+  </si>
+  <si>
+    <t>['54', '60', '87']</t>
+  </si>
+  <si>
+    <t>['35', '89']</t>
+  </si>
+  <si>
+    <t>['22', '90+1']</t>
+  </si>
+  <si>
+    <t>['4', '56', '69', '90+4']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['75', '90+2', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AK2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1445,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AK3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1516,7 +1567,7 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>91</v>
@@ -1528,73 +1579,73 @@
         <v>134</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>171</v>
       </c>
       <c r="L4">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="M4">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="N4">
-        <v>2.64</v>
+        <v>3.39</v>
       </c>
       <c r="O4">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4">
+        <v>1.44</v>
+      </c>
+      <c r="S4">
+        <v>2.63</v>
+      </c>
+      <c r="T4">
+        <v>3.25</v>
+      </c>
+      <c r="U4">
+        <v>1.33</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>1.07</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>2.1</v>
       </c>
-      <c r="R4">
-        <v>1.36</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>2.75</v>
-      </c>
-      <c r="U4">
-        <v>1.4</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>1.1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>1.83</v>
-      </c>
       <c r="AC4">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1603,76 +1654,76 @@
         <v>0</v>
       </c>
       <c r="AF4">
+        <v>1.95</v>
+      </c>
+      <c r="AG4">
+        <v>1.8</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>11</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
         <v>1.67</v>
       </c>
-      <c r="AG4">
-        <v>2.1</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>5</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>1.83</v>
-      </c>
       <c r="BC4">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="BD4" s="3">
         <v>45783.08333333334</v>
@@ -1698,55 +1749,55 @@
         <v>135</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>3</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>171</v>
       </c>
       <c r="L5">
-        <v>2.13</v>
+        <v>2.36</v>
       </c>
       <c r="M5">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="N5">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="O5">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R5">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S5">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W5">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1761,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC5">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1773,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AG5">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1785,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AK5" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1800,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1839,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="BC5">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BD5" s="3">
         <v>45783.08333333334</v>
@@ -1856,7 +1907,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
@@ -1871,148 +1922,148 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>171</v>
       </c>
       <c r="L6">
-        <v>1.83</v>
+        <v>2.58</v>
       </c>
       <c r="M6">
-        <v>3.23</v>
+        <v>2.84</v>
       </c>
       <c r="N6">
-        <v>3.77</v>
+        <v>2.64</v>
       </c>
       <c r="O6">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R6">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S6">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="V6">
+        <v>11</v>
+      </c>
+      <c r="W6">
+        <v>1.05</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1.85</v>
+      </c>
+      <c r="AC6">
+        <v>1.75</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>1.73</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>9</v>
       </c>
-      <c r="W6">
-        <v>1.07</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>1.91</v>
-      </c>
-      <c r="AC6">
-        <v>1.79</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
         <v>1.95</v>
       </c>
-      <c r="AG6">
-        <v>1.8</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>7</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>1.57</v>
-      </c>
       <c r="BC6">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="BD6" s="3">
         <v>45783.08333333334</v>
@@ -2026,7 +2077,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -2038,7 +2089,7 @@
         <v>137</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2047,142 +2098,142 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>171</v>
       </c>
       <c r="L7">
-        <v>2.03</v>
+        <v>2.26</v>
       </c>
       <c r="M7">
-        <v>3.21</v>
+        <v>2.98</v>
       </c>
       <c r="N7">
-        <v>3.18</v>
+        <v>2.93</v>
       </c>
       <c r="O7">
+        <v>1.83</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.4</v>
+      </c>
+      <c r="R7">
+        <v>1.57</v>
+      </c>
+      <c r="S7">
+        <v>2.25</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
+        <v>1.25</v>
+      </c>
+      <c r="V7">
+        <v>11</v>
+      </c>
+      <c r="W7">
+        <v>1.05</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1.48</v>
+      </c>
+      <c r="AA7">
+        <v>2.37</v>
+      </c>
+      <c r="AB7">
+        <v>2.48</v>
+      </c>
+      <c r="AC7">
+        <v>1.5</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>2.1</v>
+      </c>
+      <c r="AG7">
         <v>1.67</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2.5</v>
-      </c>
-      <c r="R7">
-        <v>1.44</v>
-      </c>
-      <c r="S7">
-        <v>2.63</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>1.36</v>
-      </c>
-      <c r="V7">
-        <v>9</v>
-      </c>
-      <c r="W7">
-        <v>1.07</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>1.96</v>
-      </c>
-      <c r="AC7">
-        <v>1.74</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>7</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
         <v>1.83</v>
       </c>
-      <c r="AG7">
-        <v>1.83</v>
-      </c>
-      <c r="AH7">
-        <v>6.75</v>
-      </c>
-      <c r="AI7">
-        <v>1.07</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>14</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>1.67</v>
-      </c>
       <c r="BC7">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BD7" s="3">
         <v>45783.08333333334</v>
@@ -2211,28 +2262,28 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>171</v>
       </c>
       <c r="L8">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="M8">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="N8">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2241,10 +2292,10 @@
         <v>2.4</v>
       </c>
       <c r="R8">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S8">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T8">
         <v>3.75</v>
@@ -2265,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AA8">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="AB8">
         <v>2.48</v>
@@ -2295,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2310,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -2349,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="BC8">
         <v>2.4</v>
@@ -2366,7 +2417,7 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -2378,13 +2429,13 @@
         <v>139</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2393,16 +2444,16 @@
         <v>171</v>
       </c>
       <c r="L9">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="M9">
-        <v>2.87</v>
+        <v>3.04</v>
       </c>
       <c r="N9">
         <v>3.1</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2411,22 +2462,22 @@
         <v>2.4</v>
       </c>
       <c r="R9">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="S9">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T9">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="V9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W9">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2435,16 +2486,16 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>2.48</v>
+        <v>1.8</v>
       </c>
       <c r="AC9">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -2453,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AG9">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2465,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AK9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2519,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BC9">
         <v>2.4</v>
@@ -2548,37 +2599,37 @@
         <v>140</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>171</v>
       </c>
       <c r="L10">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="M10">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="N10">
-        <v>3.39</v>
+        <v>3.77</v>
       </c>
       <c r="O10">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R10">
         <v>1.44</v>
@@ -2587,10 +2638,10 @@
         <v>2.63</v>
       </c>
       <c r="T10">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V10">
         <v>9</v>
@@ -2611,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AC10">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2635,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AK10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2650,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -2689,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="BC10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BD10" s="3">
         <v>45783.08333333334</v>
@@ -2706,7 +2757,7 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
@@ -2721,148 +2772,148 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>171</v>
       </c>
       <c r="L11">
-        <v>2.58</v>
+        <v>2.03</v>
       </c>
       <c r="M11">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="N11">
-        <v>2.64</v>
+        <v>3.18</v>
       </c>
       <c r="O11">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S11">
+        <v>2.63</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1.36</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>1.07</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1.96</v>
+      </c>
+      <c r="AC11">
+        <v>1.74</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1.83</v>
+      </c>
+      <c r="AG11">
+        <v>1.83</v>
+      </c>
+      <c r="AH11">
+        <v>6.75</v>
+      </c>
+      <c r="AI11">
+        <v>1.07</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>14</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>1.67</v>
+      </c>
+      <c r="BC11">
         <v>2.5</v>
-      </c>
-      <c r="T11">
-        <v>3.5</v>
-      </c>
-      <c r="U11">
-        <v>1.29</v>
-      </c>
-      <c r="V11">
-        <v>11</v>
-      </c>
-      <c r="W11">
-        <v>1.05</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>1.85</v>
-      </c>
-      <c r="AC11">
-        <v>1.75</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>2</v>
-      </c>
-      <c r="AG11">
-        <v>1.73</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>9</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>1.95</v>
-      </c>
-      <c r="BC11">
-        <v>2.2</v>
       </c>
       <c r="BD11" s="3">
         <v>45783.08333333334</v>
@@ -2888,13 +2939,13 @@
         <v>142</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2903,40 +2954,40 @@
         <v>171</v>
       </c>
       <c r="L12">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
       <c r="M12">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="N12">
-        <v>2.01</v>
+        <v>2.57</v>
       </c>
       <c r="O12">
+        <v>1.73</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>2.4</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1.67</v>
-      </c>
       <c r="R12">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U12">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2951,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AC12">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2963,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AG12">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2975,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AK12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2990,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -3029,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
+        <v>1.73</v>
+      </c>
+      <c r="BC12">
         <v>2.4</v>
-      </c>
-      <c r="BC12">
-        <v>1.67</v>
       </c>
       <c r="BD12" s="3">
         <v>45783.125</v>
@@ -3058,13 +3109,13 @@
         <v>143</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3073,40 +3124,40 @@
         <v>171</v>
       </c>
       <c r="L13">
-        <v>2.37</v>
+        <v>3.05</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="N13">
-        <v>2.57</v>
+        <v>2.01</v>
       </c>
       <c r="O13">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="R13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W13">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -3121,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="AC13">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -3133,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AG13">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -3148,7 +3199,7 @@
         <v>180</v>
       </c>
       <c r="AK13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -3160,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -3199,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="BC13">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="BD13" s="3">
         <v>45783.125</v>
@@ -3315,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK14" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -3485,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -3655,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3726,7 +3777,7 @@
         <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>91</v>
@@ -3738,55 +3789,55 @@
         <v>147</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>2</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>171</v>
       </c>
       <c r="L17">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="M17">
-        <v>2.66</v>
+        <v>3.27</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="O17">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R17">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="S17">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="U17">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="V17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W17">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -3795,94 +3846,94 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="AA17">
+        <v>1.53</v>
+      </c>
+      <c r="AB17">
+        <v>1.77</v>
+      </c>
+      <c r="AC17">
+        <v>1.93</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1.67</v>
+      </c>
+      <c r="AG17">
         <v>2.1</v>
       </c>
-      <c r="AB17">
-        <v>2.94</v>
-      </c>
-      <c r="AC17">
-        <v>1.37</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>12</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>1.73</v>
+      </c>
+      <c r="BC17">
         <v>2.25</v>
-      </c>
-      <c r="AG17">
-        <v>1.57</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>4</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>1.91</v>
-      </c>
-      <c r="BC17">
-        <v>2.5</v>
       </c>
       <c r="BD17" s="3">
         <v>45783.16666666666</v>
@@ -3896,7 +3947,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>91</v>
@@ -3908,85 +3959,85 @@
         <v>148</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>171</v>
       </c>
       <c r="L18">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="M18">
-        <v>3.27</v>
+        <v>2.66</v>
       </c>
       <c r="N18">
-        <v>2.81</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>2.5</v>
+      </c>
+      <c r="R18">
+        <v>1.62</v>
+      </c>
+      <c r="S18">
+        <v>2.2</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>1.22</v>
+      </c>
+      <c r="V18">
+        <v>13</v>
+      </c>
+      <c r="W18">
+        <v>1.04</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1.6</v>
+      </c>
+      <c r="AA18">
+        <v>2.1</v>
+      </c>
+      <c r="AB18">
+        <v>2.94</v>
+      </c>
+      <c r="AC18">
+        <v>1.37</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>2.25</v>
       </c>
-      <c r="R18">
-        <v>1.36</v>
-      </c>
-      <c r="S18">
-        <v>3</v>
-      </c>
-      <c r="T18">
-        <v>2.63</v>
-      </c>
-      <c r="U18">
-        <v>1.44</v>
-      </c>
-      <c r="V18">
-        <v>7</v>
-      </c>
-      <c r="W18">
-        <v>1.1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>2.55</v>
-      </c>
-      <c r="AA18">
-        <v>1.53</v>
-      </c>
-      <c r="AB18">
-        <v>1.77</v>
-      </c>
-      <c r="AC18">
-        <v>1.93</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>1.67</v>
-      </c>
       <c r="AG18">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -3995,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AK18" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -4010,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -4049,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="BC18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BD18" s="3">
         <v>45783.16666666666</v>
@@ -4165,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -4248,13 +4299,13 @@
         <v>150</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4263,40 +4314,40 @@
         <v>171</v>
       </c>
       <c r="L20">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="M20">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="N20">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="O20">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="R20">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S20">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W20">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -4305,94 +4356,94 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AB20">
+        <v>1.87</v>
+      </c>
+      <c r="AC20">
+        <v>1.83</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>1.73</v>
+      </c>
+      <c r="AG20">
         <v>2</v>
       </c>
-      <c r="AC20">
-        <v>1.67</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>2</v>
-      </c>
-      <c r="AG20">
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>12</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
         <v>1.73</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>9</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>2.88</v>
-      </c>
       <c r="BC20">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="BD20" s="3">
         <v>45783.29166666666</v>
@@ -4418,13 +4469,13 @@
         <v>151</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4433,71 +4484,71 @@
         <v>171</v>
       </c>
       <c r="L21">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="M21">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="N21">
+        <v>1.67</v>
+      </c>
+      <c r="O21">
         <v>2.88</v>
       </c>
-      <c r="O21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.53</v>
+      </c>
+      <c r="R21">
+        <v>1.44</v>
+      </c>
+      <c r="S21">
+        <v>2.63</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>1.33</v>
+      </c>
+      <c r="V21">
+        <v>9</v>
+      </c>
+      <c r="W21">
+        <v>1.07</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1.5</v>
+      </c>
+      <c r="AA21">
+        <v>2.4</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>1.67</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
         <v>1.73</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2.25</v>
-      </c>
-      <c r="R21">
-        <v>1.4</v>
-      </c>
-      <c r="S21">
-        <v>2.75</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.4</v>
-      </c>
-      <c r="V21">
-        <v>8</v>
-      </c>
-      <c r="W21">
-        <v>1.08</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>1.87</v>
-      </c>
-      <c r="AC21">
-        <v>1.83</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>1.73</v>
-      </c>
-      <c r="AG21">
-        <v>2</v>
-      </c>
       <c r="AH21">
         <v>0</v>
       </c>
@@ -4505,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -4520,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -4559,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="BC21">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="BD21" s="3">
         <v>45783.29166666666</v>
@@ -4675,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK22" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -4845,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -5015,10 +5066,10 @@
         <v>1.02</v>
       </c>
       <c r="AJ24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK24" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AL24">
         <v>1.4</v>
@@ -5185,10 +5236,10 @@
         <v>1.02</v>
       </c>
       <c r="AJ25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL25">
         <v>1.3</v>
@@ -5280,16 +5331,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L26">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="O26">
         <v>2.3</v>
@@ -5301,76 +5352,76 @@
         <v>1.83</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AB26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC26">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AJ26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO26">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -5438,28 +5489,28 @@
         <v>157</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L27">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>3.86</v>
       </c>
       <c r="N27">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="O27">
         <v>1.8</v>
@@ -5471,76 +5522,76 @@
         <v>2.1</v>
       </c>
       <c r="R27">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="U27">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="W27">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X27">
         <v>1.03</v>
       </c>
       <c r="Y27">
-        <v>9.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="Z27">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AA27">
-        <v>4.33</v>
+        <v>4.8</v>
       </c>
       <c r="AB27">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AC27">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="AD27">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AE27">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AF27">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AG27">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AH27">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AI27">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AJ27" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AK27" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AL27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP27">
         <v>1.18</v>
@@ -5549,19 +5600,19 @@
         <v>1.38</v>
       </c>
       <c r="AR27">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AS27">
         <v>2.1</v>
       </c>
       <c r="AT27">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU27">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="AV27">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AW27">
         <v>2.05</v>
@@ -5608,19 +5659,19 @@
         <v>158</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L28">
         <v>2.05</v>
@@ -5695,10 +5746,10 @@
         <v>1.07</v>
       </c>
       <c r="AJ28" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AK28" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AL28">
         <v>1.33</v>
@@ -5710,7 +5761,7 @@
         <v>1.57</v>
       </c>
       <c r="AO28">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP28">
         <v>1.32</v>
@@ -5778,139 +5829,139 @@
         <v>159</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L29">
+        <v>3.09</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>2.13</v>
+      </c>
+      <c r="O29">
+        <v>2.25</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29">
+        <v>1.67</v>
+      </c>
+      <c r="R29">
         <v>1.33</v>
       </c>
-      <c r="M29">
-        <v>4.25</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <v>1.3</v>
-      </c>
-      <c r="P29">
-        <v>9.5</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-      <c r="R29">
-        <v>1.36</v>
-      </c>
       <c r="S29">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="T29">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="V29">
         <v>6</v>
       </c>
       <c r="W29">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="X29">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="Y29">
         <v>10</v>
       </c>
       <c r="Z29">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AA29">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="AB29">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AC29">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AD29">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AE29">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AF29">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AG29">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AH29">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AI29">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AJ29" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AK29" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL29">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="AM29">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AN29">
-        <v>2.71</v>
+        <v>1.34</v>
       </c>
       <c r="AO29">
         <v>-1</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5919,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="BC29">
-        <v>4</v>
+        <v>1.67</v>
       </c>
       <c r="BD29" s="3">
         <v>45783.58333333334</v>
@@ -5948,19 +5999,19 @@
         <v>160</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L30">
         <v>2.31</v>
@@ -6035,10 +6086,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AK30" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -6130,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L31">
         <v>2.5</v>
@@ -6205,10 +6256,10 @@
         <v>1.02</v>
       </c>
       <c r="AJ31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL31">
         <v>1.42</v>
@@ -6220,7 +6271,7 @@
         <v>1.45</v>
       </c>
       <c r="AO31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AP31">
         <v>1.53</v>
@@ -6288,10 +6339,10 @@
         <v>162</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6300,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L32">
         <v>5.9</v>
@@ -6375,10 +6426,10 @@
         <v>1</v>
       </c>
       <c r="AJ32" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="AL32">
         <v>2.32</v>
@@ -6390,7 +6441,7 @@
         <v>1.07</v>
       </c>
       <c r="AO32">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AP32">
         <v>1.67</v>
@@ -6458,19 +6509,19 @@
         <v>163</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L33">
         <v>2.77</v>
@@ -6545,10 +6596,10 @@
         <v>1.3</v>
       </c>
       <c r="AJ33" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AK33" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AL33">
         <v>1.68</v>
@@ -6560,7 +6611,7 @@
         <v>1.38</v>
       </c>
       <c r="AO33">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP33">
         <v>1.21</v>
@@ -6631,76 +6682,76 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L34">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="M34">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="N34">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="O34">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P34">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="Q34">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R34">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S34">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W34">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X34">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Y34">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z34">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AA34">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AB34">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AC34">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AD34">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AE34">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF34">
         <v>2</v>
@@ -6709,58 +6760,58 @@
         <v>1.75</v>
       </c>
       <c r="AH34">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI34">
         <v>1.05</v>
       </c>
       <c r="AJ34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK34" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="AL34">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AM34">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AN34">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AO34">
         <v>-1</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR34">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AS34">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AT34">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="AU34">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="AV34">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="AW34">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AX34">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AY34">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -6769,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BC34">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BD34" s="3">
         <v>45783.79166666666</v>
@@ -6798,19 +6849,19 @@
         <v>165</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L35">
         <v>5.7</v>
@@ -6885,10 +6936,10 @@
         <v>1.05</v>
       </c>
       <c r="AJ35" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AK35" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="AL35">
         <v>2.37</v>
@@ -6971,76 +7022,76 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L36">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="M36">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="N36">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="O36">
+        <v>2.4</v>
+      </c>
+      <c r="P36">
+        <v>6.75</v>
+      </c>
+      <c r="Q36">
+        <v>1.73</v>
+      </c>
+      <c r="R36">
+        <v>1.5</v>
+      </c>
+      <c r="S36">
         <v>2.5</v>
       </c>
-      <c r="P36">
-        <v>6.25</v>
-      </c>
-      <c r="Q36">
-        <v>1.8</v>
-      </c>
-      <c r="R36">
+      <c r="T36">
+        <v>3.4</v>
+      </c>
+      <c r="U36">
+        <v>1.3</v>
+      </c>
+      <c r="V36">
+        <v>10</v>
+      </c>
+      <c r="W36">
+        <v>1.06</v>
+      </c>
+      <c r="X36">
+        <v>1.09</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>1.45</v>
+      </c>
+      <c r="AA36">
+        <v>2.7</v>
+      </c>
+      <c r="AB36">
+        <v>2.25</v>
+      </c>
+      <c r="AC36">
         <v>1.53</v>
       </c>
-      <c r="S36">
-        <v>2.38</v>
-      </c>
-      <c r="T36">
-        <v>3.5</v>
-      </c>
-      <c r="U36">
-        <v>1.29</v>
-      </c>
-      <c r="V36">
-        <v>11</v>
-      </c>
-      <c r="W36">
-        <v>1.05</v>
-      </c>
-      <c r="X36">
-        <v>1.1</v>
-      </c>
-      <c r="Y36">
-        <v>6.5</v>
-      </c>
-      <c r="Z36">
-        <v>1.49</v>
-      </c>
-      <c r="AA36">
-        <v>2.6</v>
-      </c>
-      <c r="AB36">
-        <v>2.37</v>
-      </c>
-      <c r="AC36">
-        <v>1.48</v>
-      </c>
       <c r="AD36">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AE36">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF36">
         <v>2</v>
@@ -7049,58 +7100,58 @@
         <v>1.75</v>
       </c>
       <c r="AH36">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI36">
         <v>1.05</v>
       </c>
       <c r="AJ36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK36" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="AL36">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AM36">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AN36">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AO36">
         <v>-1</v>
       </c>
       <c r="AP36">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AS36">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AT36">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="AU36">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AV36">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="AW36">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AX36">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AY36">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AZ36">
         <v>0</v>
@@ -7109,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BC36">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BD36" s="3">
         <v>45783.79166666666</v>
@@ -7138,25 +7189,25 @@
         <v>167</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L37">
         <v>2.16</v>
       </c>
       <c r="M37">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="N37">
         <v>3.6</v>
@@ -7171,106 +7222,106 @@
         <v>2.5</v>
       </c>
       <c r="R37">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="S37">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T37">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="U37">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V37">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="W37">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Y37">
         <v>6</v>
       </c>
       <c r="Z37">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AA37">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="AB37">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="AC37">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AD37">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AE37">
         <v>1.14</v>
       </c>
       <c r="AF37">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AG37">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AH37">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AI37">
         <v>1</v>
       </c>
       <c r="AJ37" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AK37" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AL37">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AM37">
         <v>1.34</v>
       </c>
       <c r="AN37">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AO37">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AP37">
         <v>1.24</v>
       </c>
       <c r="AQ37">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AR37">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="AS37">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="AT37">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="AU37">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AV37">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="AW37">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="AX37">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AY37">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -7308,19 +7359,19 @@
         <v>168</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L38">
         <v>1.92</v>
@@ -7395,10 +7446,10 @@
         <v>1.06</v>
       </c>
       <c r="AJ38" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AK38" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL38">
         <v>1.25</v>
@@ -7410,7 +7461,7 @@
         <v>1.75</v>
       </c>
       <c r="AO38">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AP38">
         <v>1.28</v>
@@ -7481,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7490,16 +7541,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L39">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="M39">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="N39">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
       <c r="O39">
         <v>1.8</v>
@@ -7514,7 +7565,7 @@
         <v>1.54</v>
       </c>
       <c r="S39">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="T39">
         <v>3.2</v>
@@ -7529,22 +7580,22 @@
         <v>1.03</v>
       </c>
       <c r="X39">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Y39">
         <v>6.5</v>
       </c>
       <c r="Z39">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AA39">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AB39">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="AC39">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AD39">
         <v>4.8</v>
@@ -7553,22 +7604,22 @@
         <v>1.17</v>
       </c>
       <c r="AF39">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AG39">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="AH39">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="AI39">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AJ39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AL39">
         <v>1.4</v>
@@ -7577,40 +7628,40 @@
         <v>1.38</v>
       </c>
       <c r="AN39">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AO39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP39">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AQ39">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AR39">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="AS39">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="AT39">
-        <v>2.51</v>
+        <v>2.62</v>
       </c>
       <c r="AU39">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="AV39">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="AW39">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="AX39">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AY39">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -7651,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7660,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L40">
         <v>3.45</v>
@@ -7735,10 +7786,10 @@
         <v>1.1</v>
       </c>
       <c r="AJ40" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK40" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="AL40">
         <v>1.8</v>
@@ -7750,7 +7801,7 @@
         <v>1.26</v>
       </c>
       <c r="AO40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP40">
         <v>1.28</v>
